--- a/data/Quilpué.xlsx
+++ b/data/Quilpué.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quilpué.xlsx
+++ b/data/Quilpué.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Metro Regional de Valparaíso S.A.</t>
+          <t>EFE Valparaíso S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MERVAL S.A.</t>
+          <t>EFE Valparaíso S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
